--- a/2-Data Analysis/2-Pandas/Teoria/modelo_relacional.xlsx
+++ b/2-Data Analysis/2-Pandas/Teoria/modelo_relacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\GitHub\TheBridge\SVL_DS_Marzo_TB\2-Data Analysis\2-Pandas\Teoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocio\Documents\RR_DataScience-BootcampTheBridge\2-Data Analysis\2-Pandas\Teoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206A7C0-0C0E-4800-9134-B5C18142B8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C75EE-8CBE-41B8-9930-4999493AABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{74FCC3A3-EBB5-40BC-AD24-8F4CE0600163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74FCC3A3-EBB5-40BC-AD24-8F4CE0600163}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -704,13 +704,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -718,7 +718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1002</v>
       </c>
@@ -726,7 +726,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1003</v>
       </c>
@@ -734,7 +734,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1004</v>
       </c>
@@ -742,7 +742,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1030</v>
       </c>
@@ -750,7 +750,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -767,13 +767,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD1388-D2A4-472C-B993-405BEF2F31C0}">
   <dimension ref="C5:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
@@ -787,7 +790,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>123</v>
       </c>
@@ -854,7 +857,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>234</v>
       </c>
@@ -886,7 +889,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>223</v>
       </c>
@@ -918,7 +921,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I10" s="4">
         <v>37</v>
       </c>
@@ -944,7 +947,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I11" s="4">
         <v>38</v>
       </c>
@@ -970,7 +973,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>2</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>España</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>3</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>España</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>4</v>
       </c>
@@ -1070,19 +1073,19 @@
         <v>Francia</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="P17" t="str">
         <f t="shared" si="0"/>
         <v>Francia</v>
       </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="P18" t="str">
         <f t="shared" si="0"/>
         <v>Reino Unido</v>
       </c>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I24" s="4">
         <v>34</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I25" s="4">
         <v>35</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I26" s="4">
         <v>36</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I27" s="4">
         <v>37</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I28" s="4">
         <v>38</v>
       </c>
